--- a/ResultadoEleicoesDistritos/VISEU_SÃO PEDRO DO SUL.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_SÃO PEDRO DO SUL.xlsx
@@ -597,64 +597,64 @@
         <v>4386</v>
       </c>
       <c r="H2" t="n">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="I2" t="n">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="J2" t="n">
-        <v>1853</v>
+        <v>1809</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="T2" t="n">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="U2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V2" t="n">
-        <v>2769</v>
+        <v>2736</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2825</v>
+        <v>2792</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
